--- a/biology/Médecine/Louis_Dionne/Louis_Dionne.xlsx
+++ b/biology/Médecine/Louis_Dionne/Louis_Dionne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Dionne est un médecin oncologue, chirurgien et professeur québécois né à Rimouski[1] en 1932[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Dionne est un médecin oncologue, chirurgien et professeur québécois né à Rimouski en 1932.
 Avec son épouse, Claudette Gagnon Dionne, et feu le docteur Jean-Louis Bonenfant, il a mené, durant dix-sept années, une lutte acharnée pour créer, en 1985, la Maison Michel-Sarrazin.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1994 - Médaille Gloire de l'Escolle
 1999 - Membre de l'Académie des Grands Québécois
